--- a/TestResults/GeoOrgStdGet.xlsx
+++ b/TestResults/GeoOrgStdGet.xlsx
@@ -102,6 +102,55 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Response_orgStdCd: OrgTest8
+DB_orgStdCd: OrgTest8
+Response_orgStdNm: Organisation Test8
+DB_orgStdNm: Organisation Test8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: OrgTest1
+DB_orgStdCd: OrgTest1
+Response_orgStdNm: Organisation Test
+DB_orgStdNm: Organisation Test
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: OrgTest2
+DB_orgStdCd: OrgTest2
+Response_orgStdNm: Organisation Test2
+DB_orgStdNm: Organisation Test2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: OrgTestF
+DB_orgStdCd: OrgTestF
+Response_orgStdNm: OrgTestNameF
+DB_orgStdNm: OrgTestNameF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: OrgTestB
+DB_orgStdCd: OrgTestB
+Response_orgStdNm: OrgTestNameB
+DB_orgStdNm: OrgTestNameB
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: OrgTestD
+DB_orgStdCd: OrgTestD
+Response_orgStdNm: OrgTestNameD
+DB_orgStdNm: OrgTestNameD
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: Test_QA
+DB_orgStdCd: Test_QA
+Response_orgStdNm: DescAnpi
+DB_orgStdNm: DescAnpi
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Response_orgStdCd: ISO
 DB_orgStdCd: ISO
 Response_orgStdNm: International Organization for Standardization
@@ -109,55 +158,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_orgStdCd: OrgTest8
-DB_orgStdCd: OrgTest8
-Response_orgStdNm: Organisation Test8
-DB_orgStdNm: Organisation Test8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_orgStdCd: OrgTest1
-DB_orgStdCd: OrgTest1
-Response_orgStdNm: Organisation Test
-DB_orgStdNm: Organisation Test
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_orgStdCd: OrgTest2
-DB_orgStdCd: OrgTest2
-Response_orgStdNm: Organisation Test2
-DB_orgStdNm: Organisation Test2
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_orgStdCd: OrgTestF
-DB_orgStdCd: OrgTestF
-Response_orgStdNm: OrgTestNameF
-DB_orgStdNm: OrgTestNameF
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_orgStdCd: OrgTestB
-DB_orgStdCd: OrgTestB
-Response_orgStdNm: OrgTestNameB
-DB_orgStdNm: OrgTestNameB
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_orgStdCd: OrgTestD
-DB_orgStdCd: OrgTestD
-Response_orgStdNm: OrgTestNameD
-DB_orgStdNm: OrgTestNameD
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_orgStdCd: Test_QA
-DB_orgStdCd: Test_QA
-Response_orgStdNm: DescAnpi
-DB_orgStdNm: DescAnpi
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Response_orgStdCd: Test_QD
 DB_orgStdCd: Test_QD
 Response_orgStdNm: DescAnpiD
@@ -214,6 +214,13 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Response_orgStdCd: CLDR
+DB_orgStdCd: CLDR
+Response_orgStdNm: Unicode Common Locale Data Repository
+DB_orgStdNm: Unicode Common Locale Data Repository
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Response_orgStdCd: Test_QG
 DB_orgStdCd: Test_QG
 Response_orgStdNm: DescAnpiG
@@ -221,13 +228,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_orgStdCd: CLDR
-DB_orgStdCd: CLDR
-Response_orgStdNm: Unicode Common Locale Data Repository
-DB_orgStdNm: Unicode Common Locale Data Repository
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Response_orgStdCd: Test_Og10
 DB_orgStdCd: Test_Og10
 Response_orgStdNm: Organisation Test10
@@ -301,8 +301,8 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"transactionId":"268b81ff-8389-44aa-a27f-297a1436906a",
-		"timeStamp":"2020-06-18T08:19:51.754+0000",
+		"transactionId":"f0fbc8a9-03a7-43af-9583-71d5abb5b474",
+		"timeStamp":"2020-07-16 09:43:36",
 		"statusCode":"200",
 		"message":
 		{
@@ -331,8 +331,8 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"transactionId":"b78f7a15-5e99-4248-a8df-cd26afc83b9f",
-		"timeStamp":"2020-06-18T08:19:53.146+0000",
+		"transactionId":"060ecaa2-534c-401e-9717-1bffc960a386",
+		"timeStamp":"2020-07-16 09:43:39",
 		"statusCode":"404",
 		"message":
 		{
@@ -368,8 +368,8 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"transactionId":"9ee4e2b9-fc67-49f8-81d6-4aff2cc34748",
-		"timeStamp":"2020-06-18T08:19:54.703+0000",
+		"transactionId":"4d95cc62-bcda-4f2b-aa84-efb6eac41f2a",
+		"timeStamp":"2020-07-16 09:43:43",
 		"statusCode":"405",
 		"message":
 		{
@@ -405,7 +405,8 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"timeStamp":"2020-06-18T08:19:56.588+0000",
+		"transactionId":"3093619c-5231-4296-a1ca-03033b909d83",
+		"timeStamp":"2020-07-16T09:43:45.779+0000",
 		"statusCode":"401",
 		"message":
 		{
